--- a/data/PlanesEstudio/ING-1702 Propiedad Intelectual.xlsx
+++ b/data/PlanesEstudio/ING-1702 Propiedad Intelectual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alegu\Desktop\DUAL\Dual\data\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63D20D-3D75-4FF5-A531-E8875579C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B35E90-7570-4A31-B522-6D2DEBB280D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="45" windowWidth="13845" windowHeight="12780" tabRatio="307" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="300" windowWidth="13485" windowHeight="12840" tabRatio="307" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="1" r:id="rId1"/>
@@ -99,54 +99,9 @@
     <t>Video documental</t>
   </si>
   <si>
-    <t>Conoce el fundamento legal de la ciencia y la tecnologia aplicable a mexico para el desempeño eficiente de un proceso de innovcion tecnologica</t>
-  </si>
-  <si>
-    <t>Conceptos Basicos</t>
-  </si>
-  <si>
-    <t>Habilidades para la solucion de problemas</t>
-  </si>
-  <si>
-    <t>Habilidad para buscar, procesar y analizar informacion de diversas fuentes</t>
-  </si>
-  <si>
-    <t>Habilidades en el uso de las tecnologias de la informacion de diversas fuentes</t>
-  </si>
-  <si>
-    <t>Con criterio, cada uno de los estudiantes se dispone a leer uno de los 2 titulos en materia de innovacion</t>
-  </si>
-  <si>
-    <t>Fundamentos de la innovacion</t>
-  </si>
-  <si>
-    <t>Marco Legal de la innovacion en Mexico</t>
-  </si>
-  <si>
-    <t>La importancia de la IT</t>
-  </si>
-  <si>
     <t>Analiza y comprende la importancia de la innovacion tecnologica</t>
   </si>
   <si>
-    <t>Modela el ecosistema de innovacion de su entorno economico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica la utilidad de los indicadores de la innovacion </t>
-  </si>
-  <si>
-    <t>Herramientas para la innovacion Tecnologica</t>
-  </si>
-  <si>
-    <t>Modelo Nacional de Gestion de Tecnologia</t>
-  </si>
-  <si>
-    <t>Capacidad de analisis, sintesis, organizar tiempo y planificar</t>
-  </si>
-  <si>
-    <t>Compromiso etico,preservacion del ambiente e identificar plantear y resolver problemas, Liderazgo y creatividad</t>
-  </si>
-  <si>
     <t>INC-1701T02CE01A1</t>
   </si>
   <si>
@@ -165,117 +120,27 @@
     <t>INC-1701T02CEO1A5</t>
   </si>
   <si>
-    <t>Conoce, analiza y comprende la importancia de la Propiedad Intelectual, y la clasificación vigente en el derecho intelectual mexicano e internacional.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce, analiza y comprende la legislación aplicable y conceptos básicos de la Propiedad Industrial en el derecho intelectual mexicano e internacional. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica y asimila las figuras jurídicas que comprende la Propiedad Industrial en el derecho intelectual mexicano, categoría Invenciones. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica y asimila las figuras jurídicas que comprende la Propiedad Industrial en el derecho intelectual mexicano, categoría Signos Distintivos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza y comprende la importancia de la ciencia y la tecnología en el desarrollo de la sociedad, y la transición hacia una nueva economía del conocimiento. </t>
   </si>
   <si>
     <t xml:space="preserve">Conoce,  analiza  y  comprende los fundamentos de la innovación, desde su conceptualización hasta su tipología (clases de innovación). </t>
   </si>
   <si>
-    <t xml:space="preserve">Examina las implicaciones y ventajas de una innovación abierta,  Conoce el fundamento legal de la ciencia y la tecnología aplicable a México, Examina y asimila las políticas públicas en ciencia y tecnología que aplican </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza y comprende las funciones y procesos de gestión de tecnología que integran las actividades que se realizan en una organización comprometida con el desarrollo y la innovación tecnológica. </t>
   </si>
   <si>
     <t xml:space="preserve">Analiza y comprende la importancia de la innovación tecnológica. </t>
   </si>
   <si>
-    <t>Reflexiones sobre los derechos de Propiedad Intelectual (PI), concepto, importancia y antecedentes historicos</t>
-  </si>
-  <si>
-    <t>Sistema de Propiedad Intelectual en México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes históricos y estructura en el ámbito nacional y Clasificación en el derecho intelectual mexicano </t>
-  </si>
-  <si>
-    <t>Propiedad Industrial, Reglamento de la Ley de PI,  Derechos de Autor y Variedades Vegetales</t>
-  </si>
-  <si>
-    <t>Conoce,  analiza y comprende la importancia de la Propiedad Intelectual, y la clasificación vigente en el derecho intelectual mexicano.</t>
-  </si>
-  <si>
-    <t>A través de una lluvia de ideas se promueve -entre los estudiantes-  den respuesta a: ¿qué sabemos sobre Propiedad Intelectual?</t>
-  </si>
-  <si>
-    <t>¿Por qué debemos proteger?, ¿Qué debemos proteger?, ¿La protección es una decisión técnica o de negocios?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En equipo, realizan y presentan un mapa conceptual sobre el Sistema de Propiedad Intelectual en México.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">De manera  individual,  realizan  un  ensayo donde expresen un análisis sobre la importancia de proteger  la  propiedad intelectual, así como el impacto actual y futuro para México.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Legislación aplicable y autoridad administrativa encargada de su aplicación,  Ley de la Propiedad Industrial y conceptos básicos </t>
-  </si>
-  <si>
-    <t>Principios de territorialidad y de prioridad, Estado de la técnica e Invenciones, USPTO, ESPACENET, Google patents , FreePatentsOnline.com , Capítulos existentes en una redacción que contiene una invención para su registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patentes,Concepto y vigencia ,Requisitos de patentabilidad, Derechos y obligaciones del titular de la patente y Tramitación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo de Utilidad , Concepto y vigencia, Requisitos de protección, Derechos y obligaciones del titular del registro, Tramitación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concepto y vigencia,Requisitos de protección,Derechos y obligaciones del titular del registro ,Tramitación Secreto Industrial , Concepto, Forma de protección </t>
-  </si>
-  <si>
-    <t>Conoce, analiza y comprende la legislación aplicable y conceptos básicos de la Propiedad Industrial en el derecho intelectual mexicano.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Examina  y  practica  búsquedas  del estado de la técnica en bases de datos de patentes. </t>
   </si>
   <si>
-    <t xml:space="preserve">El  estudiante realiza en Internet la búsqueda y descarga en PDF de la Ley de la Propiedad Industrial (LPI) y su respectivo Reglamento. </t>
-  </si>
-  <si>
     <t>El estudiante realiza investigación documental sobre el concepto: Estado de la técnica y discuten hallazgos</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrados en equipos de cuatro, realizan y exponen  una  representación  gráfica/visual de la clasificación que  existe para invenciones de acuerdo con la LPI. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudiante realiza un mapa mental sobre los requisitos de pantentabilidad con ejemplos ilustrativos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De manera aleatoria, sólo se presentan tres mapas mentales en plenaria. Continuando con preguntas detonadoras sobre la importancia de conocer e identificar los requisitos de patentabilidad. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generalidades, Arreglo de Niza </t>
-  </si>
-  <si>
-    <t>Marcas, Concepto y vigencia,Función de las marcas,Tipos de Marcas, Clases de Marcas, Marcas registrables y no registables</t>
-  </si>
-  <si>
-    <t>MARCANET, Derechos y obligaciones del titular,MARCANET, Derechos y obligaciones del titular</t>
-  </si>
-  <si>
-    <t>Marca notoriamente conocida y Marca famosa, Marcas colectivas, nombres comerciales, diferencias con la marca, avisos comerciales y tramitacion asi como Protección al Consumidor, Reglamento de Anuncios, Ley Federal</t>
-  </si>
-  <si>
-    <t>Denominaciones de origen, declaraciones de proteccion y autorizacion de uso</t>
-  </si>
-  <si>
-    <t>Identifica y asimila  las  figuras juridicas que comprende la propiedad intelectual en el derecho intelectual mexicano, categoria signos distintivos</t>
-  </si>
-  <si>
-    <t>Examina y practiva busquedas de marcas</t>
-  </si>
-  <si>
     <t xml:space="preserve">A través de una lluvia de ideas se promueve -entre los estudiantes-  den respuesta a: ¿qué sabemos sobre las Marcas? </t>
   </si>
   <si>
@@ -285,42 +150,9 @@
     <t xml:space="preserve">Integrados en equipos de cuatro, desarrollan una representación gráfica/visual de los conceptos y diferencias entre Marca notoriamente conocida, Marca famosa, Marcas colectivas, y Nombres comerciales. </t>
   </si>
   <si>
-    <t>El estudiante realiza investigación documental sobre el concepto e importancia de las Denominaciones de origen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De manera aleatoria, sólo se presentan tres representaciones  gráficas/visuales  en plenaria. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invenciones: Patentes y Registros, Licencias y Transmisión de derechos</t>
-  </si>
-  <si>
-    <t>Nulidad y caducidad, Signos Distintivos: Marca</t>
-  </si>
-  <si>
-    <t>Licencias y Transmisión de Derechos</t>
-  </si>
-  <si>
-    <t>Nulidad, caducidad y cancelacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudiante investiga indicadores sobre la explotación de los derechos en materia de Propiedad Industrial,  tanto  en  el  ámbito nacional como el internacional; y realiza un ensayo donde exprese un análisis sobre la importancia de estos indicadores, y evalúe la situación actual de México en este ámbito.  </t>
-  </si>
-  <si>
-    <t>Realizan un estudio de caso de un licenciamiento  en  materia  de  Propiedad Industrial</t>
-  </si>
-  <si>
-    <t>Legalizacion aplicable y autoridad administrativa encargada de su aplicación, Convenio de la union internacional para la proteccion de las obtenciones vegetales y suley federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concepto de variedad vegetal, obtentor, Protección de los Derechos de Obtentor de Variedades Vegetales </t>
-  </si>
-  <si>
     <t>Derechos y obligaciones del obtentor, base de datos sobre variedades vegetales</t>
   </si>
   <si>
-    <t>Transmicion de derechos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza y comprende la legislación aplicable y conceptos básicos de la Propiedad Intelectual de Variedades Vegetales en México. </t>
   </si>
   <si>
@@ -336,72 +168,15 @@
     <t xml:space="preserve">Realizan búsquedas en la base de datos de variedades vegetales (PLUTO). </t>
   </si>
   <si>
-    <t xml:space="preserve">Generalidades, Tratados Internacionales en materia de derechos de autor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Jurídico, Conceptos legales, Objeto de protección , Clasificación de obras, Ramas prot  ,Excluyentes de protección </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derechos de Autor,Derechos morales , Derechos patrimoniales,Modalidades de explotación, Excepción a la titularidad </t>
-  </si>
-  <si>
-    <t>Transmisión de derechos patrimoniales, Contratos regulados por la LFDA , Limitaciones y excepciones al derecho de autor</t>
-  </si>
-  <si>
-    <t>Dominio Publico, derechos conexos, objetoy sujeto de potreccion</t>
-  </si>
-  <si>
-    <t>Conoce, analiza y comprende la legislacion aplicable y conceptos basicos en materia de derechos de autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica y asimila la clasificación de obras y las ramas protegidas por el Derecho de Autor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce, analiza y comprende la aplicación pertinente de las modalidades de explotación en materia de Derechos de Autor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudiante realiza en Internet la búsqueda y descarga en PDF de la Ley Federal del Derecho de Autor y su respectivo Reglamento. </t>
-  </si>
-  <si>
-    <t>A través de una lluvia de ideas se promueve -entre los estudiantes-  den respuesta a: ¿qué sabemos sobre el Derecho de Autor?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desarrollan y presentan un mapa conceptual, en grupos de cuatro estudiantes, sobre la clasificación de obras y las ramas protegidas. </t>
   </si>
   <si>
-    <t>El estudiante realiza investigacion sobre: derechos morales y derechos patrimoniales</t>
-  </si>
-  <si>
-    <t>El estudiante realiza una investigacion sobre modalidades de exploracion, y realiza una investigacion sobre derechos conexos y elabora un reporte</t>
-  </si>
-  <si>
-    <t>Marco Juridico de internet y el comercio electronico</t>
-  </si>
-  <si>
-    <t>Conoce, analiza y comprende la legalizacion aplicable y conceptos basicos en materia de comercio electronico e internet</t>
-  </si>
-  <si>
-    <t>identifica y asimila la aplicación pertinente del uso del comercio electronico e internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A través de una lluvia de ideas se promueve -entre los estudiantes- den respuesta a: ¿El acceso a Internet es un Derecho Humano? </t>
-  </si>
-  <si>
     <t xml:space="preserve">El estudiante investiga sobre el marco jurídico nacional en  materia de comercio electrónico e Internet. </t>
   </si>
   <si>
-    <t xml:space="preserve">expresen un análisis sobre la importancia e implicaciones de que existan regulaciones en el uso del comercio electrónico e Internet,  considerando los ámbitos nacional e internacional. </t>
-  </si>
-  <si>
     <t>El estudiante consulta el  sitio web de: Network Information Center México (www.nic.mx) con el propósito de explorar la historia, divisiones e  indicadores (dominios).</t>
   </si>
   <si>
-    <t>Desarrollan y presentan un mapa conceptual, en grupos de cuatro estudiantes, sobre las “Divisiones” señaladas en el sitio web de NIC MÉXICO.</t>
-  </si>
-  <si>
-    <t>Propiedad Intelectual</t>
-  </si>
-  <si>
     <t>ING-1702</t>
   </si>
   <si>
@@ -699,18 +474,6 @@
     <t xml:space="preserve"> Marco jurídico de Internet y el comercio electrónico </t>
   </si>
   <si>
-    <t>Regulación Jurídica de Internet,Marco Jurídico Naciona, Lineamientos Internacionales,Medidas de Precaución, Disposiciones de la ONU respecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comercio Electrónic, ¿Qué es el comercio electrónico?,Firma Electrónica Avanzada,Disposiciones de la OCDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIC Mexico, Historia de Network Informtation Center (NIC) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Divisiones de NIC, Dominios </t>
-  </si>
-  <si>
     <t>ING-1702T07CE01A1</t>
   </si>
   <si>
@@ -724,6 +487,243 @@
   </si>
   <si>
     <t>ING-1702T07CEO1A5</t>
+  </si>
+  <si>
+    <t>Propiedad intelectual</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la importancia de la propiedad intelectual, y la clasificación vigente en el derecho intelectual mexicano e internacional.</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la legislación aplicable y conceptos básicos de la propiedad industrial en el derecho intelectual mexicano e internacional.</t>
+  </si>
+  <si>
+    <t>Identifica y asimila las figuras jurídicas que comprende la propiedad industrial en el derecho intelectual mexicano, categoría invenciones.</t>
+  </si>
+  <si>
+    <t>Identifica y asimila las figuras jurídicas que comprende la propiedad industrial en el derecho intelectual mexicano, categoría signos distintivos.</t>
+  </si>
+  <si>
+    <t>Conoce el fundamento legal de la ciencia y la tecnología aplicable a México para el desempeño eficiente de un proceso de innovación tecnológica</t>
+  </si>
+  <si>
+    <t>Examina las implicaciones y ventajas de una innovación abierta,  conoce el fundamento legal de la ciencia y la tecnología aplicable a México, examina y asimila las políticas públicas en ciencia y tecnología que aplican</t>
+  </si>
+  <si>
+    <t>Capacidad de análisis, síntesis, organizar tiempo y planificar</t>
+  </si>
+  <si>
+    <t>Habilidades para la solución de problemas</t>
+  </si>
+  <si>
+    <t>Habilidad para buscar, procesar y analizar información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Habilidades en el uso de las tecnologías de la información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Compromiso ético, preservación del ambiente e identificar plantear y resolver problemas, liderazgo y creatividad</t>
+  </si>
+  <si>
+    <t>Reflexiones sobre los derechos de propiedad intelectual (PI), concepto, importancia y antecedentes históricos</t>
+  </si>
+  <si>
+    <t>Sistema de propiedad intelectual en México</t>
+  </si>
+  <si>
+    <t>Antecedentes históricos y estructura en el ámbito nacional y clasificación en el derecho intelectual mexicano</t>
+  </si>
+  <si>
+    <t>Propiedad industrial, reglamento de la Ley de PI,  derechos de autor y variedades vegetales</t>
+  </si>
+  <si>
+    <t>Conoce,  analiza y comprende la importancia de la propiedad intelectual, y la clasificación vigente en el derecho intelectual mexicano.</t>
+  </si>
+  <si>
+    <t>A través de una lluvia de ideas se promueve -entre los estudiantes-  den respuesta a: ¿qué sabemos sobre propiedad intelectual?</t>
+  </si>
+  <si>
+    <t>Responder :¿Por qué debemos proteger?, ¿qué debemos proteger?, ¿la protección es una decisión técnica o de negocios?</t>
+  </si>
+  <si>
+    <t>En equipo, realizan y presentan un mapa conceptual sobre el sistema de propiedad intelectual en México.</t>
+  </si>
+  <si>
+    <t>Legislación aplicable y autoridad administrativa encargada de su aplicación,  Ley de la propiedad industrial y conceptos básicos</t>
+  </si>
+  <si>
+    <t>Principios de territorialidad y de prioridad, estado de la técnica e invenciones, USPTO, ESPACENET, Google patents , FreePatentsOnline.com , Capítulos existentes en una redacción que contiene una invención para su registro</t>
+  </si>
+  <si>
+    <t>Patentes, Concepto y vigencia,Requisitos de patentabilidad, derechos y obligaciones del titular de la patente y tramitación</t>
+  </si>
+  <si>
+    <t>Modelo de utilidad, concepto y vigencia, requisitos de Protección, derechos y Obligaciones del Titular del Registro, tramitación</t>
+  </si>
+  <si>
+    <t>Concepto y vigencia, requisitos de protección, Derechos y obligaciones del titular del registro, tramitación secreto industrial, concepto, forma de protección</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la legislación aplicable y conceptos básicos de la propiedad industrial en el derecho intelectual mexicano.</t>
+  </si>
+  <si>
+    <t>El  estudiante realiza en Internet la búsqueda y descarga en PDF de la Ley de la Propiedad Industrial (LPI) y su respectivo reglamento.</t>
+  </si>
+  <si>
+    <t>Integrados en equipos de cuatro realizan y exponen  una  representación  gráfica/visual de la clasificación que  existe para invenciones de acuerdo con la LPI.</t>
+  </si>
+  <si>
+    <t>El estudiante realiza un mapa mental sobre los requisitos de patentabilidad, con ejemplos ilustrativos.</t>
+  </si>
+  <si>
+    <t>De manera aleatoria, solo se presentan tres mapas mentales en plenaria. Continuando con preguntas detonadoras sobre la importancia de conocer e identificar los requisitos de patentabilidad.</t>
+  </si>
+  <si>
+    <t>Generalidades, arreglo de Niza</t>
+  </si>
+  <si>
+    <t>Marcas, concepto y vigencia, Función de las marcas, Tipos de marcas, clases de marcas, marcas registrables y no registrables</t>
+  </si>
+  <si>
+    <t>MARCANET, derechos y obligaciones del titular, MARCANET, derechos y obligaciones del titular</t>
+  </si>
+  <si>
+    <t>Marca notoriamente conocida y marca famosa, marcas colectivas, nombres comerciales, diferencias con la marca, avisos comerciales y tramitación, así como protección al consumidor, reglamento de anuncios, ley federal</t>
+  </si>
+  <si>
+    <t>Denominaciones de origen, declaraciones de protección y autorización de uso</t>
+  </si>
+  <si>
+    <t>Identifica y asimila  las  figuras jurídicas que comprende la propiedad intelectual en el derecho intelectual mexicano, categoría signos distintivos</t>
+  </si>
+  <si>
+    <t>Examina y practica búsquedas de marcas</t>
+  </si>
+  <si>
+    <t>El estudiante realiza investigación documental sobre el concepto e importancia de las denominaciones de origen.</t>
+  </si>
+  <si>
+    <t>De manera aleatoria, solo se presentan tres representaciones  gráficas/visuales  en plenaria.</t>
+  </si>
+  <si>
+    <t>Propiedad industrial en el derecho intelectual en el derecho mexicano: signos Distintivos</t>
+  </si>
+  <si>
+    <t>Generalidades de la Propiedad Intelectual</t>
+  </si>
+  <si>
+    <t>Propiedad Industrial en el derecho intelectual mexicano: Invenciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estudiante realiza investigación documental sobre los antecedentes históricos de la Propiedad Intelectual. </t>
+  </si>
+  <si>
+    <t>Exploración de los derechos en materia de propiedad industrial</t>
+  </si>
+  <si>
+    <t>Invenciones: Patentes y registros, licencias y transmisión de derechos</t>
+  </si>
+  <si>
+    <t>Nulidad y caducidad, signos distintivos: Marca</t>
+  </si>
+  <si>
+    <t>Licencias y transmisión de derechos</t>
+  </si>
+  <si>
+    <t>Nulidad, caducidad y cancelación</t>
+  </si>
+  <si>
+    <t>Modela el ecosistema de innovación de su entorno económico</t>
+  </si>
+  <si>
+    <t>Identifica la utilidad de los indicadores de la innovación</t>
+  </si>
+  <si>
+    <t>El estudiante investiga indicadores sobre la explotación de los derechos en materia de propiedad industrial,  tanto  en  el  ámbito nacional como el internacional; y realiza un ensayo donde exprese un análisis sobre la importancia de estos indicadores, y evalúe la situación actual de México en este ámbito.</t>
+  </si>
+  <si>
+    <t>Realizan un estudio de caso de un licenciamiento  en  materia  de  propiedad industrial</t>
+  </si>
+  <si>
+    <t>La propiedad intelectual de variedades vegetales en México</t>
+  </si>
+  <si>
+    <t>Legalización aplicable y autoridad administrativa encargada de su aplicación, Convenio de la Unión Internacional para la Protección de las Obtenciones Vegetales y su ley federal</t>
+  </si>
+  <si>
+    <t>Concepto de variedad vegetal, obtentor, protección de los derechos de obtentor de variedades vegetales</t>
+  </si>
+  <si>
+    <t>Transmisión de derechos</t>
+  </si>
+  <si>
+    <t>Derechos de autor</t>
+  </si>
+  <si>
+    <t>Generalidades, tratados internacionales en materia de derechos de autor</t>
+  </si>
+  <si>
+    <t>Marco jurídico, conceptos legales, Objeto de protección, clasificación de obras, ramas prot , Excluyentes de protección</t>
+  </si>
+  <si>
+    <t>Derechos de autor, Derechos morales, derechos patrimoniales, Modalidades de explotación, excepción a la titularidad</t>
+  </si>
+  <si>
+    <t>Transmisión de derechos patrimoniales, contratos regulados por la LFDA, limitaciones y excepciones al derecho de autor</t>
+  </si>
+  <si>
+    <t>Dominio público, derechos conexos, objeto sujeto de protección</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la legislación aplicable y conceptos básicos en materia de derechos de autor</t>
+  </si>
+  <si>
+    <t>Identifica y asimila la clasificación de obras y las ramas protegidas por el derecho de autor.</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la aplicación pertinente de las modalidades de explotación en materia de derechos de autor.</t>
+  </si>
+  <si>
+    <t>El estudiante realiza en Internet la búsqueda y descarga en PDF de la Ley Federal del Derecho de Autor y su respectivo reglamento.</t>
+  </si>
+  <si>
+    <t>A través de una lluvia de ideas se promueve -entre los estudiantes-  den respuesta a: ¿qué sabemos sobre el derecho de autor?</t>
+  </si>
+  <si>
+    <t>El estudiante realiza investigación sobre: derechos morales y derechos patrimoniales</t>
+  </si>
+  <si>
+    <t>El estudiante realiza una investigación sobre modalidades de exploración, y realiza una investigación sobre derechos conexos y elabora un reporte</t>
+  </si>
+  <si>
+    <t>Marco Juridico de Internet y el comercio electrónico</t>
+  </si>
+  <si>
+    <t>Regulación jurídica de Internet, Marco Jurídico Naciona, Lineamientos Internacionales, medidas de precaución, disposiciones de la ONU respecto</t>
+  </si>
+  <si>
+    <t>Comercio Electrónico, ¿qué es el comercio electrónico?, firma electrónica avanzada, Disposiciones de la OCDE</t>
+  </si>
+  <si>
+    <t>NIC México, Historia de Network Información Center (NIC)</t>
+  </si>
+  <si>
+    <t>Divisiones de NIC, dominios</t>
+  </si>
+  <si>
+    <t>Conoce, analiza y comprende la legalización aplicable y conceptos básicos en materia de comercio electrónico e Internet</t>
+  </si>
+  <si>
+    <t>identifica y asimila la aplicación pertinente del uso del comercio electrónico e Internet</t>
+  </si>
+  <si>
+    <t>A través de una lluvia de ideas se promueve -entre los estudiantes- den respuesta a: ¿El acceso a Internet es un derecho humano?</t>
+  </si>
+  <si>
+    <t>Expresen un análisis sobre la importancia e implicaciones de que existan regulaciones en el uso del comercio electrónico e Internet,  considerando los ámbitos nacional e internacional.</t>
+  </si>
+  <si>
+    <t>Desarrollan y presentan un mapa conceptual, en grupos de cuatro estudiantes, sobre las “divisiones” señaladas en el sitio web de NIC México.</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -992,7 +992,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1343,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1417,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1428,7 +1427,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1439,7 +1438,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1450,7 +1449,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1461,7 +1460,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1483,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1494,7 +1493,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1505,7 +1504,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1516,7 +1515,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="17" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1527,7 +1526,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1814,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,13 +1840,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
+      <c r="C2" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -1943,10 +1942,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -1961,10 +1960,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -1979,10 +1978,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -1997,10 +1996,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -2129,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2214,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -2232,10 +2231,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -2250,10 +2249,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -2268,10 +2267,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -2286,10 +2285,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -2390,10 +2389,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E37" s="12">
         <v>0.33</v>
@@ -2417,10 +2416,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E38" s="13">
         <v>0.5</v>
@@ -2440,14 +2439,14 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="E39" s="12">
         <v>0.33</v>
@@ -2471,10 +2470,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E40" s="13">
         <v>0.5</v>
@@ -2498,10 +2497,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E41" s="12">
         <v>0.33</v>
@@ -2873,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,13 +2899,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
+      <c r="C2" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -3002,10 +3001,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -3020,10 +3019,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -3038,10 +3037,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -3056,10 +3055,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -3074,10 +3073,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -3192,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3209,10 +3208,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3226,10 +3225,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3285,10 +3284,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -3303,10 +3302,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -3321,10 +3320,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -3339,10 +3338,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -3357,10 +3356,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -3461,10 +3460,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E37" s="12">
         <v>0.33</v>
@@ -3488,10 +3487,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E38" s="13">
         <v>0.5</v>
@@ -3515,10 +3514,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="E39" s="12">
         <v>0.33</v>
@@ -3542,10 +3541,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E40" s="13">
         <v>0.5</v>
@@ -3569,10 +3568,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="E41" s="12">
         <v>0.33</v>
@@ -3944,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3971,13 +3970,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -4073,10 +4072,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -4091,10 +4090,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -4109,10 +4108,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -4127,10 +4126,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -4145,10 +4144,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -4263,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4280,10 +4279,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4352,10 +4351,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -4370,10 +4369,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -4388,10 +4387,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -4406,10 +4405,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -4424,10 +4423,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -4528,10 +4527,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E37" s="12">
         <v>0.33</v>
@@ -4555,10 +4554,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E38" s="13">
         <v>0.5</v>
@@ -4582,10 +4581,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E39" s="12">
         <v>0.33</v>
@@ -4609,10 +4608,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="E40" s="13">
         <v>0.5</v>
@@ -4636,10 +4635,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E41" s="12">
         <v>0.33</v>
@@ -5011,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,13 +5037,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
+      <c r="C2" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -5140,10 +5139,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -5158,10 +5157,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -5176,10 +5175,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -5194,10 +5193,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -5326,10 +5325,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5343,10 +5342,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5360,10 +5359,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5419,10 +5418,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -5437,10 +5436,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -5455,10 +5454,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -5473,10 +5472,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -5491,10 +5490,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -5595,10 +5594,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="E37" s="12">
         <v>1</v>
@@ -5622,10 +5621,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="E38" s="13">
         <v>1</v>
@@ -6042,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,13 +6068,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -6171,10 +6170,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -6189,10 +6188,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -6207,10 +6206,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -6225,10 +6224,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -6357,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6442,10 +6441,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -6460,10 +6459,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -6478,10 +6477,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -6496,10 +6495,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -6514,10 +6513,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -6618,10 +6617,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E37" s="12">
         <v>0.5</v>
@@ -6645,10 +6644,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -6672,10 +6671,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="E39" s="12">
         <v>0.5</v>
@@ -6699,10 +6698,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -6818,7 +6817,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="34"/>
+      <c r="F47" s="33"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -7089,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9279C1-C04C-D94D-9763-4D3C00EF905A}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7116,13 +7115,13 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -7218,10 +7217,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -7236,10 +7235,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -7254,10 +7253,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -7272,10 +7271,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -7290,10 +7289,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -7408,10 +7407,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7425,10 +7424,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7442,10 +7441,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7458,7 +7457,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="25"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7501,10 +7500,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -7519,10 +7518,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -7537,10 +7536,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -7555,10 +7554,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -7573,10 +7572,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>33</v>
+        <v>124</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -7677,10 +7676,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="E37" s="12">
         <v>0.33</v>
@@ -7704,10 +7703,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E38" s="13">
         <v>0.5</v>
@@ -7731,10 +7730,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E39" s="12">
         <v>0.33</v>
@@ -7758,10 +7757,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="E40" s="13">
         <v>0.5</v>
@@ -7785,10 +7784,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="E41" s="12">
         <v>0.33</v>
@@ -8158,8 +8157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1504124-711A-418F-BA2E-2968F3A1C899}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8191,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -8287,10 +8286,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
@@ -8305,7 +8304,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>218</v>
@@ -8323,7 +8322,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>219</v>
@@ -8341,7 +8340,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>220</v>
@@ -8359,7 +8358,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>221</v>
@@ -8477,10 +8476,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -8494,10 +8493,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -8523,7 +8522,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="25"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -8566,10 +8565,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -8584,10 +8583,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -8602,10 +8601,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -8620,10 +8619,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -8638,10 +8637,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>33</v>
+        <v>141</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -8736,16 +8735,16 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>113</v>
+        <v>143</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="E37" s="12">
         <v>0.33</v>
@@ -8769,10 +8768,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E38" s="13">
         <v>0.5</v>
@@ -8796,10 +8795,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="E39" s="12">
         <v>0.33</v>
@@ -8823,10 +8822,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E40" s="13">
         <v>0.5</v>
@@ -8850,10 +8849,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>226</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="E41" s="12">
         <v>0.33</v>
@@ -9220,21 +9219,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010066362C18D9728B45B978E0202B482283" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cc541c24bb563767f1b173ccc5d750be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbe4718c-7bcc-499a-b45a-2c898923f758" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9100314d28dd3083d9f7fd26077858e" ns2:_="">
     <xsd:import namespace="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
@@ -9392,10 +9376,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683EB964-DBA5-4BF7-8665-4ABAC26A7728}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9417,19 +9426,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683EB964-DBA5-4BF7-8665-4ABAC26A7728}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>